--- a/pdf_v2/test_custom_folder/Excel/chase.xlsx
+++ b/pdf_v2/test_custom_folder/Excel/chase.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Transactions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -57,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +433,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,77 +474,77 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>98.09</v>
+          <t>LA MICHOACANA PLUS VALEJ VALEJO</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>26.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>07/24/24</t>
+          <t>07/23/24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8CHICK-FIL-A</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>54.18</v>
+          <t>EL CALEJON DE MORELOS PONCITLAN JAL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>87.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>07/24/24</t>
+          <t>07/23/24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SHEL OIL 574421503 DALY CITY</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>82.2</v>
+          <t>RESTAURANT DEPOT SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1231.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>07/24/24</t>
+          <t>07/25/24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>34.4</v>
+          <t>ROLING PIN DONUTS LC SAN BRUNO</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -557,551 +554,551 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>48.07</v>
+          <t>CHEVRON 09028 LOS ALTOS</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>70.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>07/27/24</t>
+          <t>07/25/24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744218705 VALEJO</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>60.13</v>
+          <t>ALIED PROPANE SERVICE IN 510-23707</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>206.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07/27/24</t>
+          <t>07/25/24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CARNICERIA TEPA SOUTH SAN FRA</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>196.2</v>
+          <t>EXCEL SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>40.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>07/27/24</t>
+          <t>07/26/24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744218705 VALEJO</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>104.04</v>
+          <t>GOCHES PIZA SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>210.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>07/28/24</t>
+          <t>07/27/24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TST* ANGRY CHICKZ - VALE VALEJO</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>41.01</v>
+          <t>SQ *FREDIE'S SANDWICHES SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>263.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07/29/24</t>
+          <t>07/27/24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PG&amp;E/EZ-PAY 80-743-500</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>512.85</v>
+          <t>LEVY @ LEVIS STADIUM SANTA CLARA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>21.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07/29/24</t>
+          <t>07/27/24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PG&amp;E/EZ-PAY 80-743-500</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>97.81999999999999</v>
+          <t>7-ELEVEN 306 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>07/28/24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ECM, A LEGALZOM CO. LEGALZOM.COM</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>3.5</v>
+          <t>TM *TICKETMASTER</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>397.65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>08/13/24</t>
+          <t>07/27/24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TAQUERIA LAS PENCAS 2 SAN MATEO</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>62.03</v>
+          <t>ROLING PIN DONUTS LC SAN BRUNO</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08/13/24</t>
+          <t>07/29/24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>76 - DOUBLE A SAN BRU SAN BRUNO</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>90.01000000000001</v>
+          <t>LA HACIENDA MARKET SOUTH SAN FRA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>260.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08/17/24</t>
+          <t>07/29/24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>27.3</v>
+          <t>VISTAPRINT 86-207-495</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>72.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JOSE RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08/20/24</t>
+          <t>07/29/24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>60.8</v>
+          <t>SHEL OIL 5744216501 EMERYVILE</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>60.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07/23/24</t>
+          <t>07/29/24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>76 - NW254074 ASD2 NOC SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>6.29</v>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>40.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07/24/24</t>
+          <t>07/30/24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>76 - NW254074 ASD2 NOC SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>92.06</v>
+          <t>O'REILY 2913 SANTA CLARA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07/31/24</t>
+          <t>07/29/24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>75.78</v>
+          <t>SAFEWAY #0968 VALEJO</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>78.48999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>07/30/24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LUCKY</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>72.81</v>
+          <t>VOLARIS GI8BQK VOLARIS.COM</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>41.64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>07/29/24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OFICE DEPOT</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>245.29</v>
+          <t>7-ELEVEN 306 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08/03/24</t>
+          <t>07/31/24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CHEVRON 0358727 PLEASANTON</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>95.28</v>
+          <t>D DORDASH IHOP 85-973-1040</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>90.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>07/30/24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HARBOR FREIGHT TOLS 494 HAYWARD</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>46.48</v>
+          <t>VALCOP Y ASOCIADOS TLAJOMULCO</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>90.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>07/30/24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CHEFSTORE 7571 SAN JOSE</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>108.27</v>
+          <t>BURGUER KING ANDARES ZAPOPAN JAL</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O'REILY 2754 SAN JOSE</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>21.85</v>
+          <t>COSTCO WHSE #0470 SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>41.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08/12/24</t>
+          <t>08/02/24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SPEDWAY 4874 SOUTH SAN FRA</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>10.26</v>
+          <t>ULINE *SHIP SUPLIES 80-295-510</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>49.57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>08/12/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EAST PEN SAN JOSE SAN JOSE</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>138.69</v>
+          <t>COSTCO WHSE #0470 SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>579.98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08/13/24</t>
+          <t>07/31/24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BAYSHORE AUTOMOTIVE 408-41986</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>14.78</v>
+          <t>TARGET 0010546 SAN BRUNO</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>461.97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>08/19/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JIFY LUBE</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>19.81</v>
+          <t>POINTMP*GANA CIUDAD DE MEX</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>13.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>08/19/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>STAPLES 0107193 SAN JOSE</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>194.67</v>
+          <t>COM RAPID RIM ATO MEX MERIDA YUC</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08/20/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BERKELEY-TRANSFER STAT BERKELEY</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>129.36</v>
+          <t>FARM SIMILARES SUC 119 GUADALAJARA J</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>30.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JUAN LUIS RODRIGUEZ</t>
+          <t>LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08/20/24</t>
+          <t>08/02/24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>OAKLAND PORT GAS STATION OAKLAND</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>105.12</v>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>52.42</v>
       </c>
     </row>
     <row r="34">
@@ -1112,16 +1109,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>07/23/24</t>
+          <t>08/02/24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LA MICHOACANA PLUS VALEJ VALEJO</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>26.75</v>
+          <t>JOY MORODOJEWELRY GUADALAJARA J</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4073.87</v>
       </c>
     </row>
     <row r="35">
@@ -1132,16 +1129,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07/23/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EL CALEJON</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>87.81</v>
+          <t>H64 DIVERS GDL TLAJOMULCO</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>13.01</v>
       </c>
     </row>
     <row r="36">
@@ -1152,16 +1149,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>07/23/24</t>
+          <t>08/02/24</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RESTAURANT DEPOT SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>1231.63</v>
+          <t>STARBUCKS MINERVA GUADALAJARA J</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>38.02</v>
       </c>
     </row>
     <row r="37">
@@ -1172,16 +1169,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07/24/24</t>
+          <t>08/02/24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MI JALISCO RESTAURANTE VALEJO</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>58.98</v>
+          <t>GAS MINERVA GDL GUADALAJARA J</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>105.23</v>
       </c>
     </row>
     <row r="38">
@@ -1192,16 +1189,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07/24/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TOYOTA VALEJO VALEJO</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>397.32</v>
+          <t>76 - DOUBLE AA SAN BRU SAN BRUNO</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>100.01</v>
       </c>
     </row>
     <row r="39">
@@ -1212,16 +1209,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07/24/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TOYOTA VALEJO VALEJO</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>108.96</v>
+          <t>USC HOTEL 213-7484141</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>403.95</v>
       </c>
     </row>
     <row r="40">
@@ -1232,16 +1229,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07/25/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ROLING PIN DONUTS</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>15.13</v>
+          <t>COM RAPID RIM ATO MEX MERIDA YUC</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>5.04</v>
       </c>
     </row>
     <row r="41">
@@ -1252,16 +1249,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07/25/24</t>
+          <t>08/04/24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CHEVRON 09028 LOS ALTOS</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>70.08</v>
+          <t>DD DOORDASH PARKHOWAR</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>233.57</v>
       </c>
     </row>
     <row r="42">
@@ -1272,16 +1269,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07/25/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALIED PROPANE SERVICE</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>206.36</v>
+          <t>POLLO CAMPERO R135 OLO olo.com</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>402.22</v>
       </c>
     </row>
     <row r="43">
@@ -1292,16 +1289,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>07/25/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EXCEL SAN JOSE</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>40.27</v>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>38.29</v>
       </c>
     </row>
     <row r="44">
@@ -1312,16 +1309,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07/26/24</t>
+          <t>08/04/24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GOCHES PIZA SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>210.8</v>
+          <t>COSTCO WHSE #0132 VALLEJO</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>603.72</v>
       </c>
     </row>
     <row r="45">
@@ -1332,16 +1329,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07/27/24</t>
+          <t>08/04/24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SQ *FREDIE'S SANDWICHES SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>263.35</v>
+          <t>TST* LA MAS QUERIDA SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>272.82</v>
       </c>
     </row>
     <row r="46">
@@ -1352,16 +1349,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07/27/24</t>
+          <t>08/05/24</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LEVY @ LEVIS STADIUM SANTA CLARA</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>21.83</v>
+          <t>DD DOORDASH IHOP</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>83.61</v>
       </c>
     </row>
     <row r="47">
@@ -1372,16 +1369,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07/27/24</t>
+          <t>08/05/24</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7-ELEVEN 306 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>2.7</v>
+          <t>DD DOORDASH SANJALISC</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>76.03</v>
       </c>
     </row>
     <row r="48">
@@ -1392,16 +1389,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07/27/24</t>
+          <t>08/04/24</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ROLING PIN DONUTS</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>7.54</v>
+          <t>USC HOTEL 213-7484141</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -1412,16 +1409,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07/27/24</t>
+          <t>08/04/24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RESTAURANT DEPOT LOS ANGELES</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>70.86</v>
+          <t>USC HOTEL LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>105.01</v>
       </c>
     </row>
     <row r="50">
@@ -1432,16 +1429,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07/28/24</t>
+          <t>08/05/24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TM *TICKETMASTER</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>397.65</v>
+          <t>MICROSOFT#G054769793 MSBILL.INFO</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>24.75</v>
       </c>
     </row>
     <row r="51">
@@ -1452,16 +1449,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07/28/24</t>
+          <t>08/06/24</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MIMI'S CAFE - FAIRFIELD FAIRFIELD</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>7.03</v>
+          <t>BOUNCIE HTTPSWWW.BOUN</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1472,16 +1469,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07/29/24</t>
+          <t>08/05/24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LA HACIENDA MARKET SOUTH SAN FRA</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>260.02</v>
+          <t>CANVA* I04234-71020306 HTTPSCANVA.CO</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -1492,16 +1489,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07/29/24</t>
+          <t>08/06/24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>VISTAPRINT 86-207-495</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>72.16</v>
+          <t>IN *GOLDEN STATE MATERIAL 925-4877891</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>795.21</v>
       </c>
     </row>
     <row r="54">
@@ -1512,16 +1509,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07/29/24</t>
+          <t>08/06/24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216501 EMERYVILE</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>60.16</v>
+          <t>THE WEBSTAURANT STORE INC</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>306.86</v>
       </c>
     </row>
     <row r="55">
@@ -1532,16 +1529,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07/29/24</t>
+          <t>08/07/24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>40.82</v>
+          <t>BEST BUY MHT 00007633 HONOLULU</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>104.69</v>
       </c>
     </row>
     <row r="56">
@@ -1552,16 +1549,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07/29/24</t>
+          <t>08/07/24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SAFEWAY</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>78.48999999999999</v>
+          <t>FAST &amp; EASY MART #56 CALISTOGA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="57">
@@ -1572,16 +1569,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>07/29/24</t>
+          <t>08/07/24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>7-ELEVEN 306 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>6.5</v>
+          <t>SQ *ROYAL AUTO South San Fra</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>675.88</v>
       </c>
     </row>
     <row r="58">
@@ -1592,16 +1589,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07/30/24</t>
+          <t>08/07/24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>O'REILY 2913 SANTA CLARA</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>18.54</v>
+          <t>GREAT GAS LOS GATOS LOS GATOS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>72.66</v>
       </c>
     </row>
     <row r="59">
@@ -1612,16 +1609,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07/30/24</t>
+          <t>08/06/24</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>VOLARIS GI8BQK VOLARIS.COM</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>41.64</v>
+          <t>TARGET 00003319 VALLEJO</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>228.88</v>
       </c>
     </row>
     <row r="60">
@@ -1632,16 +1629,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07/30/24</t>
+          <t>08/06/24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>VALCOP Y ASOCIADOS TLAJOMULCO</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>90.25</v>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>108.27</v>
       </c>
     </row>
     <row r="61">
@@ -1652,16 +1649,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07/30/24</t>
+          <t>08/08/24</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BURGUER KING ANDARES ZAPOPAN JAL</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>24.5</v>
+          <t>FAST &amp; EASY MART #56 CALISTOGA</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="62">
@@ -1672,16 +1669,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07/30/24</t>
+          <t>08/07/24</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SQ *MAGA SEAFOD 87-417-451</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>2175.9</v>
+          <t>TARGET 00028704 HONOLULU</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>523.55</v>
       </c>
     </row>
     <row r="63">
@@ -1692,16 +1689,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>07/31/24</t>
+          <t>08/07/24</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>D DORDASH IHOP 85-973-1040</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>90.06</v>
+          <t>IN-N-OUT DALY CITY DALY CITY</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="64">
@@ -1712,16 +1709,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07/31/24</t>
+          <t>08/08/24</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TARGET 0010546 SAN BRUNO</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>461.97</v>
+          <t>ALLIED PROPANE SERVICE IN 510-2377077</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>206.36</v>
       </c>
     </row>
     <row r="65">
@@ -1732,16 +1729,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07/31/24</t>
+          <t>08/07/24</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>COSTCO WHSE</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>198.67</v>
+          <t>TST* LA MAS QUERIDA</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>213.73</v>
       </c>
     </row>
     <row r="66">
@@ -1752,16 +1749,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07/31/24</t>
+          <t>08/08/24</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LOWES</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>57.82</v>
+          <t>SHERATON HOTEL WAIKIKI HONOLULU</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>589.8099999999999</v>
       </c>
     </row>
     <row r="67">
@@ -1772,16 +1769,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>08/09/24</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>COSTCO WHSE</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>41.85</v>
+          <t>SQ *ROYAL AUTO South San Fra</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>783.17</v>
       </c>
     </row>
     <row r="68">
@@ -1792,16 +1789,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>08/09/24</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>COSTCO WHSE</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>579.98</v>
+          <t>RUTH'S CHRIS 0227361 WAIKIKI</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>281.46</v>
       </c>
     </row>
     <row r="69">
@@ -1812,16 +1809,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>POINTMP*GANA CIUDAD</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>13.29</v>
+          <t>UBER* ONE HTTPSWWW.UBER</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>3.73</v>
       </c>
     </row>
     <row r="70">
@@ -1832,16 +1829,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FARM SIMILARES SUC 19 GUADALAJARA J</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>30.09</v>
+          <t>STARBUCKS</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71">
@@ -1852,16 +1849,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>08/08/24</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>76 - DOUBLE A SAN BRU SAN BRUNO</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>10.01</v>
+          <t>SHELL OIL 57444218200 VALLEJO</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>106.48</v>
       </c>
     </row>
     <row r="72">
@@ -1872,16 +1869,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>USC HOTEL</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="n">
-        <v>403.95</v>
+          <t>STARBUCKS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="73">
@@ -1892,16 +1889,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>08/02/24</t>
+          <t>08/09/24</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ULINE *SHIP SUPLIES 80-295-510</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="n">
-        <v>49.57</v>
+          <t>TST*GIOVANNI PASTRAMI Honolulu</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>95.08</v>
       </c>
     </row>
     <row r="74">
@@ -1912,16 +1909,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>08/02/24</t>
+          <t>08/09/24</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>52.42</v>
+          <t>OHANA GIFT OUTLET HONOLULU</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>480.41</v>
       </c>
     </row>
     <row r="75">
@@ -1932,16 +1929,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>08/02/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JOY MORODOJEWELRY GUADALAJARA J</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>4073.87</v>
+          <t>SCCWEIGHTSMEASURE</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>204.4</v>
       </c>
     </row>
     <row r="76">
@@ -1952,16 +1949,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>08/02/24</t>
+          <t>08/09/24</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>STARBUCKS MINERVA GUADALAJARA J</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>38.02</v>
+          <t>CHEESECAKE HONOLULU HONOLULU</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>250.06</v>
       </c>
     </row>
     <row r="77">
@@ -1972,16 +1969,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>08/02/24</t>
+          <t>08/09/24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GAS MINERVA GDL GUADALAJARA J</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>105.23</v>
+          <t>STAR OF HONOLULU AUTHNET</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>840.02</v>
       </c>
     </row>
     <row r="78">
@@ -1992,16 +1989,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08/02/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RESTAURANT DEPOT SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>1298.6</v>
+          <t>SHELL OIL 57444216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>79.20999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -2012,16 +2009,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>08/03/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>COM RAPID RIM ATO MEX MERIDA YUC</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>17.73</v>
+          <t>AIRFI VOLARI09-980b-962a8 31235563150</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2032,16 +2029,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08/03/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>H64 DIVERS GDL TLAJOMULCO</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>13.01</v>
+          <t>MCDONALD'S M5335 OF HI HONOLULU</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>17.56</v>
       </c>
     </row>
     <row r="81">
@@ -2052,16 +2049,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>08/03/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>COM RAPID RIM ATO MEX MERIDA YUC</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>5.04</v>
+          <t>1011PEPSIVEN9147678600 AIEA</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="82">
@@ -2072,16 +2069,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>08/03/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>38.29</v>
+          <t>DUKES WAIKIKI HONOLULU</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>176.42</v>
       </c>
     </row>
     <row r="83">
@@ -2092,16 +2089,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>08/03/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CA DMV</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>5.73</v>
+          <t>SHEL OIL 100804301 MILPITAS</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>40.08</v>
       </c>
     </row>
     <row r="84">
@@ -2112,16 +2109,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>08/04/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>D DORDASH PARKHOWAR 85-973-1040</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>23.57</v>
+          <t>COMCAST CALIFORNIA 80-COMCAST</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>80.12</v>
       </c>
     </row>
     <row r="85">
@@ -2132,16 +2129,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>08/04/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>COSTCO WHSE</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>603.72</v>
+          <t>SHERATON HOTEL WAIKIKI HONOLULU</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>3185.25</v>
       </c>
     </row>
     <row r="86">
@@ -2152,16 +2149,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>08/04/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TST*</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>272.82</v>
+          <t>YARD HOUSE ZK 0108316 HONOLULU</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>259.81</v>
       </c>
     </row>
     <row r="87">
@@ -2172,16 +2169,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>08/04/24</t>
+          <t>08/09/24</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>USC HOTEL LOS ANGELES</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>105.01</v>
+          <t>CA DMV FE 678-731516</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="88">
@@ -2192,16 +2189,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>08/05/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>D DORDASH IHOP 85-973-1040</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>83.61</v>
+          <t>IN *GOLDEN STATE MATERIAL 925-487891</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>371.01</v>
       </c>
     </row>
     <row r="89">
@@ -2212,16 +2209,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>08/05/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>D DORDASH SANJALISC 85-973-1040</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>76.03</v>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>70.04000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -2232,16 +2229,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>08/05/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MICROSOFT#G054769793 MSBIL.INFO</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>24.75</v>
+          <t>GREAT GAS LOS GATOS LOS GATOS</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>76.87</v>
       </c>
     </row>
     <row r="91">
@@ -2252,16 +2249,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>08/05/24</t>
+          <t>08/15/24</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>STAR-BOX, INC 562-912030</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>3907.24</v>
+          <t>WAL-MART #1651 VALEJO</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>109.2</v>
       </c>
     </row>
     <row r="92">
@@ -2272,16 +2269,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>08/06/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>IN *GOLDEN STATE MATERIAL 925-487891</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>795.21</v>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>36.81</v>
       </c>
     </row>
     <row r="93">
@@ -2292,16 +2289,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>08/06/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>THE WEBSTAURANT STORE INC</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>306.86</v>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="94">
@@ -2312,16 +2309,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>08/06/24</t>
+          <t>08/16/24</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>108.27</v>
+          <t>SQ *B TEA San Jose</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>14.95</v>
       </c>
     </row>
     <row r="95">
@@ -2332,16 +2329,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>08/07/24</t>
+          <t>08/18/24</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BEST BUY MHT 00763 HONOLULU</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>104.69</v>
+          <t>PROGRESIVE INS 80-76-4737</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>120.84</v>
       </c>
     </row>
     <row r="96">
@@ -2352,16 +2349,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>08/07/24</t>
+          <t>08/17/24</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>IN-N-OUT DALY CITY DALY CITY</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>37.8</v>
+          <t>KRISPY KREME #7630 SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>23.69</v>
       </c>
     </row>
     <row r="97">
@@ -2372,16 +2369,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>08/07/24</t>
+          <t>08/17/24</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TST*</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>213.73</v>
+          <t>SQ *FREDIE'S SANDWICHES SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>259.25</v>
       </c>
     </row>
     <row r="98">
@@ -2392,16 +2389,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>08/07/24</t>
+          <t>08/16/24</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CHEVRON 0309093 LOS ANGELES</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>49.98</v>
+          <t>DECALS.COM 320-846900</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>190.14</v>
       </c>
     </row>
     <row r="99">
@@ -2412,16 +2409,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>08/07/24</t>
+          <t>08/17/24</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>STAR-BOX, INC 562-912030</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>2723.3</v>
+          <t>REPUBLIC SERVICES TRASH 86-576-548</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>272.71</v>
       </c>
     </row>
     <row r="100">
@@ -2432,16 +2429,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/15/24</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ALIED PROPANE SERVICE</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>206.36</v>
+          <t>EL FAROS MEXICAN FOD SOUTH SAN FRA</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>24.05</v>
       </c>
     </row>
     <row r="101">
@@ -2452,16 +2449,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/15/24</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SHERATON HOTEL WAIKIKI HONOLULU</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>589.8099999999999</v>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>42.67</v>
       </c>
     </row>
     <row r="102">
@@ -2472,16 +2469,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/18/24</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SHEL OIL 574421820 VALEJO</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="n">
-        <v>106.48</v>
+          <t>CHEVRON 090543 WINTERS</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>101.71</v>
       </c>
     </row>
     <row r="103">
@@ -2492,16 +2489,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>08/09/24</t>
+          <t>08/19/24</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SQ *ROYAL AUTO South San Fra</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>783.17</v>
+          <t>SIXFLAGS DK VALEJO CA 707-64-400</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>38.25</v>
       </c>
     </row>
     <row r="104">
@@ -2512,16 +2509,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>08/09/24</t>
+          <t>08/19/24</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>RUTH'S CHRIS 027361 WAIKIKI</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>281.46</v>
+          <t>BEST BUY 00128 VALEJO</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>36.21</v>
       </c>
     </row>
     <row r="105">
@@ -2532,16 +2529,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>08/09/24</t>
+          <t>08/19/24</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TST*GIOVANI PASTRAMI Honolulu</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>95.08</v>
+          <t>SQ *ROYAL AUTO South San Fra</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>176.74</v>
       </c>
     </row>
     <row r="106">
@@ -2552,16 +2549,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>08/09/24</t>
+          <t>08/18/24</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>OHANA GIFT OUTLET HONOLULU</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>480.41</v>
+          <t>SIXFLAGS DK VALEJO CA VALEJO</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>25.2</v>
       </c>
     </row>
     <row r="107">
@@ -2572,16 +2569,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>08/09/24</t>
+          <t>08/19/24</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CHESECAKE HONOLULU HONOLULU</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>250.06</v>
+          <t>BEVERAGES &amp; MORE #19 BURLINGAME</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>64.78</v>
       </c>
     </row>
     <row r="108">
@@ -2592,16 +2589,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>08/09/24</t>
+          <t>08/19/24</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>STAR</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>840.02</v>
+          <t>COSTCO WHSE #0470 SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>839.53</v>
       </c>
     </row>
     <row r="109">
@@ -2612,16 +2609,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>08/09/24</t>
+          <t>08/18/24</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CA DMV</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>4.7</v>
+          <t>TST*JACKS RESTAURANT &amp; B Pleasant Hil</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>25.1</v>
       </c>
     </row>
     <row r="110">
@@ -2632,16 +2629,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>08/10/24</t>
+          <t>08/20/24</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>UBER* ONE HTPSWW.UBER</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>3.73</v>
+          <t>VALEY RECYCLING 408-2975352</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>84.45999999999999</v>
       </c>
     </row>
     <row r="111">
@@ -2652,16 +2649,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>08/10/24</t>
+          <t>08/20/24</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SCWEIGHTSMEASURE</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>204.4</v>
+          <t>EXCEL SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>80.41</v>
       </c>
     </row>
     <row r="112">
@@ -2672,16 +2669,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>08/10/24</t>
+          <t>08/21/24</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>79.20999999999999</v>
+          <t>BESTBUYCOM80695937253 88BESTBUY</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>673.12</v>
       </c>
     </row>
     <row r="113">
@@ -2692,16 +2689,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>08/10/24</t>
+          <t>08/21/24</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MCDONALD'S M535</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>17.56</v>
+          <t>7 DAYS SMOG &amp; DMV REG SVC OAKLAND</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>746.1799999999999</v>
       </c>
     </row>
     <row r="114">
@@ -2712,16 +2709,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>08/10/24</t>
+          <t>08/21/24</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>101PEPSIVEN914767860 AIEA</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>2.6</v>
+          <t>BESTBUYCOM80695937253 88BESTBUY</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>42.43</v>
       </c>
     </row>
     <row r="115">
@@ -2732,16 +2729,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>08/10/24</t>
+          <t>07/24/24</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DUKES WAIKIKI HONOLULU</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>176.42</v>
+          <t>MI JALISCO RESTAURANTE VALEJO</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>58.98</v>
       </c>
     </row>
     <row r="116">
@@ -2752,16 +2749,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08/10/24</t>
+          <t>07/24/24</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SHEL OIL 100804301 MILPITAS</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>40.08</v>
+          <t>TOYOTA VALEJO VALEJO</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>397.32</v>
       </c>
     </row>
     <row r="117">
@@ -2772,16 +2769,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>08/12/24</t>
+          <t>07/24/24</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SHEL OIL12631503013 LOS ANGELES</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>49.32</v>
+          <t>TOYOTA VALEJO VALEJO</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>108.96</v>
       </c>
     </row>
     <row r="118">
@@ -2792,16 +2789,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>08/13/24</t>
+          <t>07/27/24</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SHERATON HOTEL WAIKIKI HONOLULU</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>3185.25</v>
+          <t>RESTAURANT DEPOT LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>70.86</v>
       </c>
     </row>
     <row r="119">
@@ -2812,16 +2809,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08/13/24</t>
+          <t>07/28/24</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>YARD HOUSE</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>259.81</v>
+          <t>MIMI'S CAFE - FAIRFIELD FAIRFIELD</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>7.03</v>
       </c>
     </row>
     <row r="120">
@@ -2832,16 +2829,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>08/13/24</t>
+          <t>07/29/24</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>IN *GOLDEN STATE MATERIAL 925-487891</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>371.01</v>
+          <t>VERNON FUEL VERNON</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="121">
@@ -2852,16 +2849,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>08/13/24</t>
+          <t>07/30/24</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>70.04000000000001</v>
+          <t>SQ *MAGA SEAFOOD</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>2175.9</v>
       </c>
     </row>
     <row r="122">
@@ -2872,16 +2869,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>08/14/24</t>
+          <t>07/31/24</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>COMCAST CALIFORNIA 80-COMCAST</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>80.12</v>
+          <t>COSTCO WHSE #0132 VALLEJO</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>198.67</v>
       </c>
     </row>
     <row r="123">
@@ -2892,16 +2889,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>08/14/24</t>
+          <t>07/31/24</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>GREAT GAS LOS GATOS LOS GATOS</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>76.87</v>
+          <t>LOWES #01871* VALLEJO</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>57.82</v>
       </c>
     </row>
     <row r="124">
@@ -2912,16 +2909,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>08/14/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>36.81</v>
+          <t>76 - A &amp; C SERVICE INC LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="125">
@@ -2932,16 +2929,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>08/14/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>3.42</v>
+          <t>76 - A &amp; C SERVICE INC LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="126">
@@ -2952,16 +2949,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>08/15/24</t>
+          <t>08/02/24</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>WAL-MART</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>109.2</v>
+          <t>RESTAURANT DEPOT SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1298.6</v>
       </c>
     </row>
     <row r="127">
@@ -2972,16 +2969,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>08/15/24</t>
+          <t>08/04/24</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EL FAROS MEXICAN FOD SOUTH SAN FRA</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>24.05</v>
+          <t>KWIK SERV VALLEJO SPRI VALLEJO</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>46.33</v>
       </c>
     </row>
     <row r="128">
@@ -2992,16 +2989,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>08/15/24</t>
+          <t>08/05/24</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>42.67</v>
+          <t>STAR-BOX, INC 562-9120300</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>3907.24</v>
       </c>
     </row>
     <row r="129">
@@ -3012,16 +3009,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>08/16/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SQ *B TEA San Jose</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>14.95</v>
+          <t>STATE OF CALIF DMV INT SC 800-7770133</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>294</v>
       </c>
     </row>
     <row r="130">
@@ -3032,16 +3029,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>08/16/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DECALS.COM 320-846900</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>190.14</v>
+          <t>CA DMV FEE 678-7315516</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>5.73</v>
       </c>
     </row>
     <row r="131">
@@ -3052,16 +3049,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>08/17/24</t>
+          <t>08/07/24</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>KRISPY KREME</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>23.69</v>
+          <t>CHEVRON 0309093 LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>49.98</v>
       </c>
     </row>
     <row r="132">
@@ -3072,16 +3069,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>08/17/24</t>
+          <t>08/07/24</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SQ *FREDIE'S SANDWICHES SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>259.25</v>
+          <t>STAR-BOX, INC 562-9120300</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>2723.3</v>
       </c>
     </row>
     <row r="133">
@@ -3092,16 +3089,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>08/17/24</t>
+          <t>08/09/24</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>REPUBLIC SERVICES TRASH 86-576-548</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>272.71</v>
+          <t>CHEVRON 0309093 LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="134">
@@ -3112,16 +3109,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>08/17/24</t>
+          <t>08/12/24</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>O'REILY 348 VALEJO</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>125.62</v>
+          <t>SHELL OIL12631503013 LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>49.32</v>
       </c>
     </row>
     <row r="135">
@@ -3132,16 +3129,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>08/18/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PROGRESIVE INS 80-76-4737</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>120.84</v>
+          <t>VERNON FUEL VERNON</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="136">
@@ -3152,16 +3149,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>08/18/24</t>
+          <t>08/16/24</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CHEVRON 090543 WINTERS</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>101.71</v>
+          <t>VERNON FUEL DISTRIBUTION VERNON</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="137">
@@ -3172,16 +3169,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>08/18/24</t>
+          <t>08/17/24</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SIXFLAGS</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>25.2</v>
+          <t>INTUIT *TSheets CL.INTUIT.COM</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="138">
@@ -3192,16 +3189,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>08/18/24</t>
+          <t>08/17/24</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TST*JACKS RESTAURANT &amp; B Pleasant Hil</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>25.1</v>
+          <t>O'REILLY 3488 VALLEJO</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>125.62</v>
       </c>
     </row>
     <row r="139">
@@ -3217,11 +3214,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SIXFLAGS</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>38.25</v>
+          <t>HARBOR FREIGHT TOOLS 17 VALLEJO</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>39.94</v>
       </c>
     </row>
     <row r="140">
@@ -3237,11 +3234,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>BEST BUY 00128 VALEJO</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>36.21</v>
+          <t>VERNON FUEL VERNON</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="141">
@@ -3252,16 +3249,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>08/19/24</t>
+          <t>08/21/24</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SQ *ROYAL AUTO South San Fra</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>176.74</v>
+          <t>STAR-BOX, INC 562-9120300</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>2970.89</v>
       </c>
     </row>
     <row r="142">
@@ -3272,442 +3269,442 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>08/19/24</t>
+          <t>08/21/24</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BEVERAGES &amp; MORE</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>64.78</v>
+          <t>SHELL OIL12631503013 LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>08/19/24</t>
+          <t>07/23/24</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>COSTCO WHSE</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>839.53</v>
+          <t>76 - NW254074 ASD2 NOC SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>66.29000000000001</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>08/19/24</t>
+          <t>07/23/24</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HARBOR FREIGHT TOLS 17 VALEJO</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>39.94</v>
+          <t>CASTRO VALLEY UNION 76 CASTRO VALLEY</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>08/20/24</t>
+          <t>07/24/24</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>VALEY RECYCLING</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>84.45999999999999</v>
+          <t>76 - NW254074 ASD2 NOC SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>92.06</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>08/20/24</t>
+          <t>07/27/24</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EXCEL SAN JOSE</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>80.41</v>
+          <t>ARCO#04977TD OIL &amp; GAS L CASTRO VALLEY</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>08/21/24</t>
+          <t>07/31/24</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BESTBUYCOM80695937253 88BESTBUY</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="n">
-        <v>673.12</v>
+          <t>CILANTRO SF TAQUERIA SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>75.78</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>08/21/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>7 DAYS SMOG &amp; DMV REG SVC OAKLAND</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="n">
-        <v>746.1799999999999</v>
+          <t>Staples Inc staples.com</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>232.33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>08/21/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BESTBUYCOM80695937253 88BESTBUY</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="n">
-        <v>42.43</v>
+          <t>LUCKY #748 SAN BRUN SAN BRUNO</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>72.81</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>LUIS RODRIGUEZ</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>08/21/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>STAR-BOX, INC 562-912030</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="n">
-        <v>2970.89</v>
+          <t>CHEVRON 0358727 PLEASANTON</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>95.28</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>07/23/24</t>
+          <t>08/01/24</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>WINGSTOP</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="n">
-        <v>193.76</v>
+          <t>OFFICE DEPOT #3286 COLMA</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>245.29</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>07/23/24</t>
+          <t>08/03/24</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>NATIONS GIANT HAMBURGERS</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="n">
-        <v>84.40000000000001</v>
+          <t>ARCO#04977TD OIL &amp; GAS L CASTRO VALLEY</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>07/23/24</t>
+          <t>08/08/24</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>NATIONS GIANT HAMBURGERS</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="n">
-        <v>37.9</v>
+          <t>HARBOR FREIGHT TOOLS 494 HAYWARD</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>46.48</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>07/23/24</t>
+          <t>08/09/24</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>HABIT ANTIOCH</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="n">
-        <v>170.94</v>
+          <t>SQ *VICTORIA PASTRY CO. San Francisco</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>07/29/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="n">
-        <v>9.5</v>
+          <t>SQ *FREDDIE'S SANDWICHES SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>07/30/24</t>
+          <t>08/12/24</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="n">
-        <v>9.5</v>
+          <t>SPEEDWAY 4874 SOUTH SAN FRA</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>100.26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>07/31/24</t>
+          <t>08/19/24</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>16.5</v>
+          <t>JIFFY LUBE #1404 HAYWARD</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>199.81</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>08/01/24</t>
+          <t>08/20/24</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="n">
-        <v>9.5</v>
+          <t>76 - NW254074 ASD2 NOC SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>08/03/24</t>
+          <t>08/20/24</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="n">
-        <v>9.5</v>
+          <t>BERKELEY-TRANSFER STAT BERKELEY</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>129.36</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>08/04/24</t>
+          <t>08/20/24</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="n">
-        <v>9.5</v>
+          <t>OAKLAND PORT GAS STATION OAKLAND</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>08/06/24</t>
+          <t>08/20/24</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="n">
-        <v>9.5</v>
+          <t>OAKLAND PORT GAS STATION OAKLAND</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>105.12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>08/06/24</t>
+          <t>08/20/24</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>9.5</v>
+          <t>OAKLAND PORT GAS STATION OAKLAND</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>JUAN LUIS RODRIGUEZ</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>08/07/24</t>
+          <t>08/20/24</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>9.5</v>
+          <t>OAKLAND PORT GAS STATION OAKLAND</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3717,111 +3714,111 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>9.5</v>
+          <t>CHEFSTORE 7571 SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>108.27</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>08/10/24</t>
+          <t>08/08/24</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>9.5</v>
+          <t>O'REILLY 2754 SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>21.85</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>08/12/24</t>
+          <t>08/10/24</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>16.5</v>
+          <t>AUTOZONE #3337 SANTA CLARA</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>23.99</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>08/13/24</t>
+          <t>08/12/24</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="n">
-        <v>9.5</v>
+          <t>EAST PENN SAN JOSE SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>138.69</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>08/14/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>LUCKY</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>264.74</v>
+          <t>BAYSHORE AUTOMOTIVE 408-4419986</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>144.78</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PULAK UNG</t>
+          <t>RODRIGUEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>08/14/24</t>
+          <t>08/19/24</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>TAQUERIA LAS PENCAS SOUTH SAN FRA</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="n">
-        <v>57.18</v>
+          <t>STAPLES 00107193 SAN JOSE</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>194.67</v>
       </c>
     </row>
     <row r="170">
@@ -3832,16 +3829,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>08/14/24</t>
+          <t>07/23/24</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="n">
-        <v>16.5</v>
+          <t>WINGSTOP 438</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>193.76</v>
       </c>
     </row>
     <row r="171">
@@ -3852,16 +3849,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>08/15/24</t>
+          <t>07/23/24</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="n">
-        <v>9.5</v>
+          <t>NATIONS GIANT HAMBURGERS</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="172">
@@ -3872,16 +3869,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>08/16/24</t>
+          <t>07/23/24</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="n">
-        <v>16.5</v>
+          <t>NATIONS GIANT HAMBURGERS</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>37.9</v>
       </c>
     </row>
     <row r="173">
@@ -3892,16 +3889,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>08/17/24</t>
+          <t>07/23/24</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SQ *REFLECTIONS CRYSTALS Salinas</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="n">
-        <v>54.69</v>
+          <t>HABIT ANTIOCH #109 https://prod.</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>170.94</v>
       </c>
     </row>
     <row r="174">
@@ -3912,16 +3909,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>08/17/24</t>
+          <t>07/25/24</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SHEL OIL 5744678403 SAN FRANCISCO</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="n">
-        <v>91.95999999999999</v>
+          <t>NAPA VALLEY PUBLISHING 707-2562207</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="175">
@@ -3932,16 +3929,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>08/19/24</t>
+          <t>07/25/24</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>FASTRAK CSC 415-486-865</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="n">
-        <v>10.5</v>
+          <t>FASTRAK VIOLATION CENT</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="176">
@@ -3952,16 +3949,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>08/20/24</t>
+          <t>07/29/24</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TMOBILE*AUTO PAY 80-937-897</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="n">
-        <v>920.4299999999999</v>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="177">
@@ -3972,7 +3969,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>08/20/24</t>
+          <t>07/30/24</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3980,7 +3977,7 @@
           <t>FASTRAK CSC 415-486-865</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -3992,16 +3989,756 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
+          <t>07/31/24</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>08/03/24</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>08/04/24</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>08/06/24</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>08/06/24</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>08/07/24</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>08/08/24</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>08/12/24</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>08/10/24</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>08/13/24</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>08/14/24</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>LUCKY #748 SAN BRUN SAN BRUNO</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>264.74</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>08/14/24</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>TAQUERIA LAS PENCAS SOUTH SAN FRA</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>57.18</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>08/14/24</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>08/17/24</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>SQ *REFLECTIONS CRYSTALS Salinas</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>54.69</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>08/15/24</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>08/16/24</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>08/17/24</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>SHEL OIL 5744678403 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>91.95999999999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>08/19/24</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>08/20/24</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>TMOBILE*AUTO PAY 80-937-897</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>920.4299999999999</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>08/20/24</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>FASTRAK CSC 415-486-865</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>PULAK UNG</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
           <t>08/21/24</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>FASTRAK CSC 415-486-865</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D199" t="n">
         <v>16.5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>07/23/24</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>98.09</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>07/24/24</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>8CHICK-FIL-A #0448 DALY CITY</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>54.18</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>07/24/24</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SHEL OIL 574421503 DALY CITY</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>07/24/24</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>07/25/24</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>48.07</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>07/28/24</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>TST* ANGRY CHICKZ - VALE VALEJO</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>07/27/24</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>SHEL OIL 5744218705 VALEJO</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>60.13</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>07/27/24</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>CARNICERIA TEPA SOUTH SAN FRA</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>196.2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>07/27/24</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>SHEL OIL 5744218705 VALEJO</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>104.04</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>07/29/24</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>PG&amp;E/EZ-PAY 80-743-500</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>512.85</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>07/29/24</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>PG&amp;E/EZ-PAY 80-743-500</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>97.81999999999999</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>ECM, A LEGALZOM CO. LEGALZOM.COM</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>08/13/24</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>TAQUERIA LAS PENCAS 2 SAN MATEO</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>62.03</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>08/13/24</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>76 - DOUBLE A SAN BRU SAN BRUNO</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>90.01000000000001</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>08/17/24</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>JOSE RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>08/20/24</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>SHEL OIL 5744216808 SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>60.8</v>
       </c>
     </row>
   </sheetData>
